--- a/biology/Zoologie/Anomalohimalaya/Anomalohimalaya.xlsx
+++ b/biology/Zoologie/Anomalohimalaya/Anomalohimalaya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anomalohimalaya est un genre de tiques de la famille des Ixodidae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie centrale, au Tibet et au Népal.
 Elles ont été observées sur des rongeurs des genres Cricetulus et Alticola.
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,9 +585,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Guglielmone &amp; al., 2010[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Guglielmone &amp; al., 2010 :
 Anomalohimalaya cricetuli Teng &amp; Huang, 1981
 Anomalohimalaya lamai Hoogstraal, Kaiser &amp; Mitchell, 1970
 Anomalohimalaya lotozkyi Filippova &amp; Panova, 1978</t>
@@ -602,7 +620,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hoogstraal, Kaiser &amp; Mitchell, 1970 : Anomalohimalaya lama, New Genus and New Species (Ixodoidea: Ixodidae), a Tick Parasitizing Rodents, Shrews, and Hares in the Tibetan Highland of Nepal. Annals of the Entomological Society of America, vol. 63, n. 6, p. 1576-1585.</t>
         </is>
